--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1777210.573416661</v>
+        <v>1774666.763909577</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283199</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>208.2085323732918</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>59.8012719186828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12.28545219196015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>48.44626081894172</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>41.65170393035857</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>169.3735351649917</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>19.72100737961695</v>
       </c>
       <c r="G5" t="n">
-        <v>225.4031397636151</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="X5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>68.53264881198402</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>127.4695742187183</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>63.27499344337884</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>68.05955538367301</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>219.0977003434011</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465025</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>190.2577701645897</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>91.06264775161628</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>20.24979976115235</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256465</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>16.06183527693234</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>147.1530342867073</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>31.39650288673342</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581646</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>103.8784673763412</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.82863813027318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8253826161913385</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703312</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.6255456814118</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301544</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016485</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>141.3831318263038</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057584</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411475</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.4401302107654</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>90.14863908058324</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182135</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.93450140722186</v>
+        <v>31.83025205763878</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>72.60410776434674</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759422</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.29683349370546</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>95.12712756824533</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272958</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127038</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030602</v>
@@ -4367,13 +4367,13 @@
         <v>634.167062227511</v>
       </c>
       <c r="W2" t="n">
-        <v>367.789405660333</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>101.4117490931551</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.2786710473376</v>
+        <v>354.787594686703</v>
       </c>
       <c r="C3" t="n">
-        <v>339.2786710473376</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>339.2786710473376</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>180.0412160418821</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>33.50665806876711</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>33.50665806876711</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>33.50665806876711</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4413,13 +4413,13 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
         <v>909.4672107560896</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>987.5840192239847</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>790.7749408554223</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528705</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473376</v>
+        <v>354.787594686703</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.2786710473376</v>
+        <v>354.787594686703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.0866528456006</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="C4" t="n">
-        <v>629.0866528456006</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="D4" t="n">
-        <v>629.0866528456006</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0866528456006</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4501,7 +4501,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>883.7711410514875</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V4" t="n">
-        <v>629.0866528456006</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W4" t="n">
-        <v>629.0866528456006</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>629.0866528456006</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="Y4" t="n">
-        <v>629.0866528456006</v>
+        <v>232.1057215405108</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4565,22 +4565,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X5" t="n">
-        <v>255.7225503044907</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.7225503044907</v>
+        <v>53.98113264792551</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149.8542560755936</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="C6" t="n">
-        <v>149.8542560755936</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>149.8542560755936</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4644,52 +4644,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755936</v>
+        <v>398.4938728567101</v>
       </c>
     </row>
     <row r="7">
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,22 +4750,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>990.9413852147328</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="V7" t="n">
-        <v>736.256897008846</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="Y7" t="n">
         <v>21.09711040012049</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>726.5262874280879</v>
+        <v>1213.330099424956</v>
       </c>
       <c r="C8" t="n">
-        <v>357.5637704876762</v>
+        <v>844.3675824845443</v>
       </c>
       <c r="D8" t="n">
-        <v>136.2529620599983</v>
+        <v>844.3675824845443</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2529620599983</v>
+        <v>844.3675824845443</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107949</v>
+        <v>837.4220817353408</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>421.715859727008</v>
       </c>
       <c r="H8" t="n">
         <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685572</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607425</v>
+        <v>442.1757437607424</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904594</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661167</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342786</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342786</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342786</v>
+        <v>2182.248837287707</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999215</v>
+        <v>2182.248837287707</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729101</v>
+        <v>2182.248837287707</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468021</v>
+        <v>1990.069271464889</v>
       </c>
       <c r="Y8" t="n">
-        <v>1113.12612749221</v>
+        <v>1599.929939489078</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010795</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199526</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587013</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532458</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801308</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.648070876319</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685572</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J9" t="n">
         <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572711</v>
+        <v>298.0857543148182</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907527</v>
+        <v>592.6217377482997</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865054</v>
+        <v>1226.361020933139</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337624</v>
+        <v>1613.445423405708</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325014</v>
+        <v>1945.332233393098</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789041</v>
+        <v>2445.34536178904</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751579</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519836</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791634</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821148</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274018</v>
+        <v>368.8922057701561</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994949</v>
+        <v>199.9560228422492</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871592</v>
+        <v>199.9560228422492</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047661</v>
+        <v>199.9560228422492</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685572</v>
+        <v>199.9560228422492</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685572</v>
+        <v>199.9560228422492</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685572</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685572</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380162</v>
+        <v>76.63468308380156</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
         <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990404</v>
+        <v>823.8653899904039</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1619.545069440058</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699198</v>
+        <v>1422.904816661892</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.147591173603</v>
+        <v>1422.904816661892</v>
       </c>
       <c r="U10" t="n">
-        <v>1067.508162601172</v>
+        <v>1133.786443156534</v>
       </c>
       <c r="V10" t="n">
-        <v>1067.508162601172</v>
+        <v>879.1019549506468</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.508162601172</v>
+        <v>589.6847849136863</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>589.6847849136863</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576415</v>
+        <v>368.8922057701561</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400721</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5732,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400758</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121689</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121689</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121689</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703155</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,31 +5999,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138429</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,52 +6212,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197903</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762601</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
         <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782976</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038364</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.550723916711</v>
+        <v>702.4944101284107</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888042</v>
+        <v>533.5582272005038</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1991887469508</v>
+        <v>884.1428749586504</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,22 +7184,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7245,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
         <v>776.1751066403293</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.5738700011939</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.2223348314336</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7658,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876725</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876725</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>580.8993044876725</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>580.8993044876725</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038374</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235168</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602307</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.74706939642</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.32989935946</v>
+        <v>1144.284195611851</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614423</v>
+        <v>916.2946447138336</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179122</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127238</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8149,13 +8149,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.4068835459977</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094977</v>
+        <v>255.533100976078</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348501</v>
+        <v>20.98618304348504</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3131525023037</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>44.73700564187115</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392193769</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.9899273368005</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>144.8013425629404</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.531099771519</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788969</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711719</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>196.0358353086609</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>202.6501519448729</v>
+        <v>186.754401294456</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>144.8013425629415</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>50.29392045468592</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.7414866708244</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369782</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369782</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369781</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="L2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580798</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606928</v>
+        <v>507909.232060693</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101789</v>
+        <v>95270.23779101779</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447208</v>
+        <v>141668.8507447209</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567902</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-441054.6544002455</v>
+        <v>-441054.6544002453</v>
       </c>
       <c r="C6" t="n">
         <v>239033.3261909474</v>
       </c>
       <c r="D6" t="n">
-        <v>-71048.53132008832</v>
+        <v>-71048.53132008793</v>
       </c>
       <c r="E6" t="n">
-        <v>-75984.78331065162</v>
+        <v>-76019.52123608759</v>
       </c>
       <c r="F6" t="n">
-        <v>431924.448750041</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="G6" t="n">
-        <v>431924.4487500411</v>
+        <v>431889.7108246054</v>
       </c>
       <c r="H6" t="n">
-        <v>431924.4487500411</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="I6" t="n">
-        <v>431924.4487500411</v>
+        <v>431889.7108246055</v>
       </c>
       <c r="J6" t="n">
-        <v>362925.2943309271</v>
+        <v>362890.5564054913</v>
       </c>
       <c r="K6" t="n">
-        <v>431924.4487500409</v>
+        <v>431889.7108246055</v>
       </c>
       <c r="L6" t="n">
-        <v>336654.2109590234</v>
+        <v>336619.4730335876</v>
       </c>
       <c r="M6" t="n">
-        <v>299206.4730545722</v>
+        <v>299171.7351291365</v>
       </c>
       <c r="N6" t="n">
-        <v>431924.4487500409</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="O6" t="n">
-        <v>431924.448750041</v>
+        <v>431889.7108246051</v>
       </c>
       <c r="P6" t="n">
-        <v>431924.4487500415</v>
+        <v>431889.7108246054</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627835</v>
+        <v>933.7024595627832</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,10 +26793,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856965</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,31 +26805,31 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933052</v>
+        <v>319.647445793305</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788905</v>
+        <v>434.2730407788907</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.42681008419</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841906</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>141.0324363441212</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>326.4366667373708</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>31.63635180954545</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>98.70367459325706</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>125.231963108188</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>116.8850953376858</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>387.1550383620945</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>187.4310348820949</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>98.00053483788332</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>30.17550623668259</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27822,25 +27822,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>222.9836370592986</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>150.5250979684218</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>135.5853412772819</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>179.4733305138793</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164528771</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164527349</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>85.52512388716298</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>139.0741554835971</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-2.53354608527818e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30906,7 +30906,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-6.11562886382343e-12</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885559</v>
+        <v>3.753577726885558</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546674</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763192</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354933</v>
+        <v>592.3427171354932</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359944</v>
+        <v>659.0954050359942</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.7602577525079</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307897</v>
+        <v>632.4356192307896</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983024</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542132</v>
+        <v>405.3441667542131</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140474</v>
       </c>
       <c r="T8" t="n">
         <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
         <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.14683309026273</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152217</v>
+        <v>522.3360580152216</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947591</v>
       </c>
       <c r="Q9" t="n">
         <v>256.3629847463703</v>
@@ -31631,10 +31631,10 @@
         <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,7 +31674,7 @@
         <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
         <v>50.63422518415882</v>
@@ -31683,37 +31683,37 @@
         <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490125</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023126</v>
       </c>
       <c r="N10" t="n">
         <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
         <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942755</v>
+        <v>7.194100917942754</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.09183958618650337</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>202.2352659288684</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32078,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>399.190220890813</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>530.5785304507795</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572286</v>
+        <v>153.4895779655505</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,7 +34790,7 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34869,13 +34869,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313388</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655061</v>
+        <v>356.576302165506</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087217</v>
+        <v>428.7491718087215</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.347194155917</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809103</v>
+        <v>402.3374078091028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430329</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797637</v>
+        <v>183.0384768797636</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234306</v>
+        <v>20.20013907234301</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127597</v>
+        <v>62.90656844127594</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884366</v>
+        <v>186.4616124758579</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396986</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318885</v>
+        <v>390.9943459318883</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074642</v>
+        <v>335.2392020074641</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899267</v>
+        <v>505.0637660565068</v>
       </c>
       <c r="Q9" t="n">
         <v>116.3812106603488</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873323</v>
+        <v>25.6802301787332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
         <v>277.9141240093286</v>
@@ -35343,13 +35343,13 @@
         <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228593</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394598</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35504,7 +35504,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578466</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,10 +36215,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572999025</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295474</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998974</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060468</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295531</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287611</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409638</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
